--- a/xlsx/country_comparison/foreign_aid_raise_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_raise_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Lower spending on defense</t>
@@ -407,208 +404,175 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.333333333333333</v>
+        <v>0.271186440677966</v>
       </c>
       <c r="D2" t="n">
-        <v>0.142857142857143</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E2" t="n">
-        <v>0.357142857142857</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.157894736842105</v>
+        <v>0.0666666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.142857142857143</v>
-      </c>
-      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.0487804878048781</v>
       </c>
       <c r="E5" t="n">
-        <v>0.285714285714286</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.157894736842105</v>
+        <v>0.133333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.024390243902439</v>
       </c>
       <c r="E6" t="n">
-        <v>0.142857142857143</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.0666666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.15</v>
+        <v>0.1875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.416666666666667</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.219512195121951</v>
       </c>
       <c r="E7" t="n">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.263157894736842</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.55</v>
+        <v>0.625</v>
       </c>
       <c r="C8" t="n">
-        <v>0.833333333333333</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="D8" t="n">
-        <v>0.571428571428571</v>
+        <v>0.317073170731707</v>
       </c>
       <c r="E8" t="n">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.842105263157895</v>
+        <v>0.933333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C9" t="n">
-        <v>0.25</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="D9" t="n">
-        <v>0.571428571428571</v>
+        <v>0.0487804878048781</v>
       </c>
       <c r="E9" t="n">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.526315789473684</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="D10" t="n">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0714285714285714</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.133333333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.024390243902439</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
+        <v>0.0666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_raise_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_raise_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Lower spending on defense</t>
@@ -404,176 +407,189 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.125</v>
+        <v>0.157407407407407</v>
       </c>
       <c r="C2" t="n">
-        <v>0.271186440677966</v>
+        <v>0.303964757709251</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.154761904761905</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0666666666666667</v>
-      </c>
+        <v>0.284615384615385</v>
+      </c>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.0416666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0508474576271186</v>
+        <v>0.0308370044052863</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.00595238095238095</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
+        <v>0.0307692307692308</v>
+      </c>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0677966101694915</v>
+        <v>0.026431718061674</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
+        <v>0.0230769230769231</v>
+      </c>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.185185185185185</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.101321585903084</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0487804878048781</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="E5" t="n">
-        <v>0.133333333333333</v>
-      </c>
+        <v>0.0923076923076923</v>
+      </c>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0208333333333333</v>
+        <v>0.0231481481481481</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0338983050847458</v>
+        <v>0.0220264317180617</v>
       </c>
       <c r="D6" t="n">
-        <v>0.024390243902439</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0666666666666667</v>
-      </c>
+        <v>0.00769230769230769</v>
+      </c>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1875</v>
+        <v>0.231481481481481</v>
       </c>
       <c r="C7" t="n">
-        <v>0.288135593220339</v>
+        <v>0.317180616740088</v>
       </c>
       <c r="D7" t="n">
-        <v>0.219512195121951</v>
+        <v>0.160714285714286</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2</v>
-      </c>
+        <v>0.107692307692308</v>
+      </c>
+      <c r="F7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.625</v>
+        <v>0.532407407407407</v>
       </c>
       <c r="C8" t="n">
-        <v>0.864406779661017</v>
+        <v>0.832599118942731</v>
       </c>
       <c r="D8" t="n">
-        <v>0.317073170731707</v>
+        <v>0.339285714285714</v>
       </c>
       <c r="E8" t="n">
-        <v>0.933333333333333</v>
-      </c>
+        <v>0.876923076923077</v>
+      </c>
+      <c r="F8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.375</v>
+        <v>0.236111111111111</v>
       </c>
       <c r="C9" t="n">
-        <v>0.152542372881356</v>
+        <v>0.202643171806167</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0487804878048781</v>
+        <v>0.148809523809524</v>
       </c>
       <c r="E9" t="n">
-        <v>0.333333333333333</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0208333333333333</v>
+        <v>0.0324074074074074</v>
       </c>
       <c r="C10" t="n">
-        <v>0.135593220338983</v>
+        <v>0.0704845814977974</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="E10" t="n">
-        <v>0.133333333333333</v>
-      </c>
+        <v>0.261538461538462</v>
+      </c>
+      <c r="F10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0625</v>
+        <v>0.0648148148148148</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0338983050847458</v>
+        <v>0.066079295154185</v>
       </c>
       <c r="D11" t="n">
-        <v>0.024390243902439</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0666666666666667</v>
-      </c>
+        <v>0.0923076923076923</v>
+      </c>
+      <c r="F11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/foreign_aid_raise_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_raise_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Lower spending on defense</t>
@@ -410,186 +413,219 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.157407407407407</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
-        <v>0.303964757709251</v>
+        <v>0.22692447155476</v>
       </c>
       <c r="D2" t="n">
-        <v>0.154761904761905</v>
+        <v>0.146393699610536</v>
       </c>
       <c r="E2" t="n">
-        <v>0.284615384615385</v>
-      </c>
-      <c r="F2"/>
+        <v>0.332923924150111</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.16800121880135</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.261068846667204</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0416666666666667</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B3"/>
       <c r="C3" t="n">
-        <v>0.0308370044052863</v>
+        <v>0.0272663468589499</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00595238095238095</v>
+        <v>0.0379183946271391</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0307692307692308</v>
-      </c>
-      <c r="F3"/>
+        <v>0.0201968061008542</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00341142020920487</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0440664582258092</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.037037037037037</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B4"/>
       <c r="C4" t="n">
-        <v>0.026431718061674</v>
+        <v>0.0260421701553322</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.0429595061260505</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0230769230769231</v>
-      </c>
-      <c r="F4"/>
+        <v>0.017677939513179</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.011970600539407</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0278190970401001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.185185185185185</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B5"/>
       <c r="C5" t="n">
-        <v>0.101321585903084</v>
+        <v>0.114498121293255</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0238095238095238</v>
+        <v>0.192347956966048</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0923076923076923</v>
-      </c>
-      <c r="F5"/>
+        <v>0.0954994617305845</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0209553413316565</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.107200896893222</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.0231481481481481</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B6"/>
       <c r="C6" t="n">
-        <v>0.0220264317180617</v>
+        <v>0.0193810933842837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.0194457799482197</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00769230769230769</v>
-      </c>
-      <c r="F6"/>
+        <v>0.0171451535535589</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0145206300674666</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0235143509916231</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.231481481481481</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B7"/>
       <c r="C7" t="n">
-        <v>0.317180616740088</v>
+        <v>0.225962016659953</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160714285714286</v>
+        <v>0.209728499723216</v>
       </c>
       <c r="E7" t="n">
-        <v>0.107692307692308</v>
-      </c>
-      <c r="F7"/>
+        <v>0.329696138915185</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0968047813064105</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0935290480239634</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.532407407407407</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B8"/>
       <c r="C8" t="n">
-        <v>0.832599118942731</v>
+        <v>0.647236714590937</v>
       </c>
       <c r="D8" t="n">
-        <v>0.339285714285714</v>
+        <v>0.560352605738791</v>
       </c>
       <c r="E8" t="n">
-        <v>0.876923076923077</v>
-      </c>
-      <c r="F8"/>
+        <v>0.824732439244775</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.356640626432835</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.845213391239458</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.236111111111111</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B9"/>
       <c r="C9" t="n">
-        <v>0.202643171806167</v>
+        <v>0.265869237719493</v>
       </c>
       <c r="D9" t="n">
-        <v>0.148809523809524</v>
+        <v>0.239065918618025</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F9"/>
+        <v>0.228354700394325</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.162207699270681</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.527241600636448</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0324074074074074</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B10"/>
       <c r="C10" t="n">
-        <v>0.0704845814977974</v>
+        <v>0.0773974532861311</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.0300050911911399</v>
       </c>
       <c r="E10" t="n">
-        <v>0.261538461538462</v>
-      </c>
-      <c r="F10"/>
+        <v>0.0626354065874593</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.029087010669463</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.180606576239657</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0648148148148148</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B11"/>
       <c r="C11" t="n">
-        <v>0.066079295154185</v>
+        <v>0.0578602978565389</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0238095238095238</v>
+        <v>0.0571605964965612</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0923076923076923</v>
-      </c>
-      <c r="F11"/>
+        <v>0.0470443001533881</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0193127272057445</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0808900076351167</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/foreign_aid_raise_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_raise_positive.xlsx
@@ -421,210 +421,230 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.22692447155476</v>
+        <v>0.212150763340026</v>
       </c>
       <c r="D2" t="n">
-        <v>0.146393699610536</v>
+        <v>0.155182460808482</v>
       </c>
       <c r="E2" t="n">
-        <v>0.332923924150111</v>
+        <v>0.299272728720947</v>
       </c>
       <c r="F2" t="n">
-        <v>0.16800121880135</v>
+        <v>0.167857804745096</v>
       </c>
       <c r="G2" t="n">
-        <v>0.261068846667204</v>
+        <v>0.215010498642029</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C3" t="n">
-        <v>0.0272663468589499</v>
+        <v>0.0303366325666919</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0379183946271391</v>
+        <v>0.0365654352029909</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0201968061008542</v>
+        <v>0.0223821418434753</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00341142020920487</v>
+        <v>0.00325666048425394</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0440664582258092</v>
+        <v>0.0518287011258801</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C4" t="n">
-        <v>0.0260421701553322</v>
+        <v>0.027980182575478</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0429595061260505</v>
+        <v>0.0367597138012525</v>
       </c>
       <c r="E4" t="n">
-        <v>0.017677939513179</v>
+        <v>0.0263211778384209</v>
       </c>
       <c r="F4" t="n">
-        <v>0.011970600539407</v>
+        <v>0.011597525946891</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0278190970401001</v>
+        <v>0.0358094411469398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C5" t="n">
-        <v>0.114498121293255</v>
+        <v>0.116615989893129</v>
       </c>
       <c r="D5" t="n">
-        <v>0.192347956966048</v>
+        <v>0.186965378726038</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0954994617305845</v>
+        <v>0.105630224621274</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0209553413316565</v>
+        <v>0.0199227004972322</v>
       </c>
       <c r="G5" t="n">
-        <v>0.107200896893222</v>
+        <v>0.115118141308912</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C6" t="n">
-        <v>0.0193810933842837</v>
+        <v>0.0209933673270556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0194457799482197</v>
+        <v>0.0206371428899784</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0171451535535589</v>
+        <v>0.0121096458941359</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0145206300674666</v>
+        <v>0.011597525946891</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0235143509916231</v>
+        <v>0.0495713876949218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C7" t="n">
-        <v>0.225962016659953</v>
+        <v>0.235478666791878</v>
       </c>
       <c r="D7" t="n">
-        <v>0.209728499723216</v>
+        <v>0.215081375444226</v>
       </c>
       <c r="E7" t="n">
-        <v>0.329696138915185</v>
+        <v>0.371961042094486</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0968047813064105</v>
+        <v>0.0832787442772555</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0935290480239634</v>
+        <v>0.117209024552444</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C8" t="n">
-        <v>0.647236714590937</v>
+        <v>0.644223011752284</v>
       </c>
       <c r="D8" t="n">
-        <v>0.560352605738791</v>
+        <v>0.551026659877707</v>
       </c>
       <c r="E8" t="n">
-        <v>0.824732439244775</v>
+        <v>0.823519674792176</v>
       </c>
       <c r="F8" t="n">
-        <v>0.356640626432835</v>
+        <v>0.357138821258943</v>
       </c>
       <c r="G8" t="n">
-        <v>0.845213391239458</v>
+        <v>0.845603508647773</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C9" t="n">
-        <v>0.265869237719493</v>
+        <v>0.270004060432848</v>
       </c>
       <c r="D9" t="n">
-        <v>0.239065918618025</v>
+        <v>0.2132434348126</v>
       </c>
       <c r="E9" t="n">
-        <v>0.228354700394325</v>
+        <v>0.269686487105618</v>
       </c>
       <c r="F9" t="n">
-        <v>0.162207699270681</v>
+        <v>0.162377062929799</v>
       </c>
       <c r="G9" t="n">
-        <v>0.527241600636448</v>
+        <v>0.527497066116331</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C10" t="n">
-        <v>0.0773974532861311</v>
+        <v>0.0747905391483552</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0300050911911399</v>
+        <v>0.0253903173013726</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0626354065874593</v>
+        <v>0.0844214079357899</v>
       </c>
       <c r="F10" t="n">
-        <v>0.029087010669463</v>
+        <v>0.0311473123298712</v>
       </c>
       <c r="G10" t="n">
-        <v>0.180606576239657</v>
+        <v>0.181277660653049</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C11" t="n">
-        <v>0.0578602978565389</v>
+        <v>0.0614568391352153</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0571605964965612</v>
+        <v>0.0524583260243882</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0470443001533881</v>
+        <v>0.0875497497753137</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0193127272057445</v>
+        <v>0.0215047056904657</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0808900076351167</v>
+        <v>0.0668766370385117</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_raise_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_raise_positive.xlsx
@@ -421,230 +421,230 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="e">
-        <v>#NUM!</v>
+      <c r="B2" t="n">
+        <v>0.304727581920543</v>
       </c>
       <c r="C2" t="n">
-        <v>0.212150763340026</v>
+        <v>0.213596992215042</v>
       </c>
       <c r="D2" t="n">
-        <v>0.155182460808482</v>
+        <v>0.155169175342086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.299272728720947</v>
+        <v>0.299261419981661</v>
       </c>
       <c r="F2" t="n">
-        <v>0.167857804745096</v>
+        <v>0.1685104425032</v>
       </c>
       <c r="G2" t="n">
-        <v>0.215010498642029</v>
+        <v>0.215028015144644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="e">
-        <v>#NUM!</v>
+      <c r="B3" t="n">
+        <v>0.0536068477831767</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0303366325666919</v>
+        <v>0.0321191400625014</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0365654352029909</v>
+        <v>0.0366217224544</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0223821418434753</v>
+        <v>0.0223821069780903</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00325666048425394</v>
+        <v>0.0144009409306211</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0518287011258801</v>
+        <v>0.0518064477196601</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
+      <c r="B4" t="n">
+        <v>0.101153575433294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.027980182575478</v>
+        <v>0.0295475282231825</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0367597138012525</v>
+        <v>0.0367721822653803</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0263211778384209</v>
+        <v>0.0263356564983261</v>
       </c>
       <c r="F4" t="n">
-        <v>0.011597525946891</v>
+        <v>0.0231958929164911</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0358094411469398</v>
+        <v>0.0358231357955384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
+      <c r="B5" t="n">
+        <v>0.137333269790533</v>
       </c>
       <c r="C5" t="n">
-        <v>0.116615989893129</v>
+        <v>0.118260955839178</v>
       </c>
       <c r="D5" t="n">
-        <v>0.186965378726038</v>
+        <v>0.187073010215646</v>
       </c>
       <c r="E5" t="n">
-        <v>0.105630224621274</v>
+        <v>0.105630656295856</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0199227004972322</v>
+        <v>0.0294418865849763</v>
       </c>
       <c r="G5" t="n">
-        <v>0.115118141308912</v>
+        <v>0.115116327860179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
+      <c r="B6" t="n">
+        <v>0.0760731491553689</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0209933673270556</v>
+        <v>0.0234039473987513</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0206371428899784</v>
+        <v>0.0206588402047084</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0121096458941359</v>
+        <v>0.0121119739580767</v>
       </c>
       <c r="F6" t="n">
-        <v>0.011597525946891</v>
+        <v>0.030991217210743</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0495713876949218</v>
+        <v>0.0495825927721502</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="e">
-        <v>#NUM!</v>
+      <c r="B7" t="n">
+        <v>0.193945966576823</v>
       </c>
       <c r="C7" t="n">
-        <v>0.235478666791878</v>
+        <v>0.236512672874883</v>
       </c>
       <c r="D7" t="n">
-        <v>0.215081375444226</v>
+        <v>0.215107788114015</v>
       </c>
       <c r="E7" t="n">
-        <v>0.371961042094486</v>
+        <v>0.371970881423708</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0832787442772555</v>
+        <v>0.109060359420358</v>
       </c>
       <c r="G7" t="n">
-        <v>0.117209024552444</v>
+        <v>0.117149189507211</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
+      <c r="B8" t="n">
+        <v>0.676754591107586</v>
       </c>
       <c r="C8" t="n">
-        <v>0.644223011752284</v>
+        <v>0.644729900442054</v>
       </c>
       <c r="D8" t="n">
-        <v>0.551026659877707</v>
+        <v>0.550941496708761</v>
       </c>
       <c r="E8" t="n">
-        <v>0.823519674792176</v>
+        <v>0.823493089930349</v>
       </c>
       <c r="F8" t="n">
-        <v>0.357138821258943</v>
+        <v>0.350479877260764</v>
       </c>
       <c r="G8" t="n">
-        <v>0.845603508647773</v>
+        <v>0.845635018290227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="e">
-        <v>#NUM!</v>
+      <c r="B9" t="n">
+        <v>0.507586812166403</v>
       </c>
       <c r="C9" t="n">
-        <v>0.270004060432848</v>
+        <v>0.267898965800834</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2132434348126</v>
+        <v>0.213233989354764</v>
       </c>
       <c r="E9" t="n">
-        <v>0.269686487105618</v>
+        <v>0.269699168917687</v>
       </c>
       <c r="F9" t="n">
-        <v>0.162377062929799</v>
+        <v>0.14753186578656</v>
       </c>
       <c r="G9" t="n">
-        <v>0.527497066116331</v>
+        <v>0.527534281311001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
+      <c r="B10" t="n">
+        <v>0.100902707734255</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0747905391483552</v>
+        <v>0.0741577479405969</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0253903173013726</v>
+        <v>0.025409547007078</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0844214079357899</v>
+        <v>0.0844405882863104</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0311473123298712</v>
+        <v>0.0226021203954889</v>
       </c>
       <c r="G10" t="n">
-        <v>0.181277660653049</v>
+        <v>0.181313092118898</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="e">
-        <v>#NUM!</v>
+      <c r="B11" t="n">
+        <v>0.0425133216452964</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0614568391352153</v>
+        <v>0.0605878953496347</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0524583260243882</v>
+        <v>0.0524791710314631</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0875497497753137</v>
+        <v>0.0875263105514601</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0215047056904657</v>
+        <v>0.0209812623597029</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0668766370385117</v>
+        <v>0.0668693209684859</v>
       </c>
     </row>
   </sheetData>
